--- a/public/res/leaderboards/Round 3/Intermediate.xlsx
+++ b/public/res/leaderboards/Round 3/Intermediate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamzaqureshi/Documents/Programming/Python/poker-tournament-leaderboard/public/res/leaderboards/Round 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamzaqureshi/Documents/Programming/Python/QTS/add_new_players/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC91786-025E-184F-8E79-A493D6208742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB0B6ECB-1C3E-3F45-90FD-678B6DBF15A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="Intermediate" sheetId="1" r:id="rId1"/>
@@ -22,127 +22,127 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
+    <t>Round 1</t>
+  </si>
+  <si>
+    <t>Round 2</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Kang Pi</t>
+  </si>
+  <si>
+    <t>Dennis Guo</t>
+  </si>
+  <si>
+    <t>Xuan Hung Ho</t>
+  </si>
+  <si>
+    <t>Nicholas Leon</t>
+  </si>
+  <si>
+    <t>Xingze Li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julian Petrocchi </t>
+  </si>
+  <si>
+    <t>Christian Sallabank</t>
+  </si>
+  <si>
+    <t>Levin Kunniardy</t>
+  </si>
+  <si>
+    <t>Phuc Huy Doan</t>
+  </si>
+  <si>
+    <t>Alex Do</t>
+  </si>
+  <si>
+    <t>Anton Lu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subhash Shekar </t>
+  </si>
+  <si>
+    <t>Jack Olivier</t>
+  </si>
+  <si>
+    <t>Leo Grant</t>
+  </si>
+  <si>
+    <t>Andrew Walton</t>
+  </si>
+  <si>
+    <t>Brendan Zou</t>
+  </si>
+  <si>
+    <t>Jonah wentzel</t>
+  </si>
+  <si>
+    <t>Logan McPhail</t>
+  </si>
+  <si>
+    <t>Jasper Meckel</t>
+  </si>
+  <si>
+    <t>Anirudh Kasturi</t>
+  </si>
+  <si>
+    <t>Cameron Carmeni</t>
+  </si>
+  <si>
+    <t>Joseph Doncev</t>
+  </si>
+  <si>
+    <t>Hong Tak Lei</t>
+  </si>
+  <si>
+    <t>brady surya sie</t>
+  </si>
+  <si>
+    <t>Nadim Kibria</t>
+  </si>
+  <si>
+    <t>Alex Leviny</t>
+  </si>
+  <si>
+    <t>Dylan Baptist</t>
+  </si>
+  <si>
+    <t>Cong Nguyen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Callum GAUNTLETT </t>
+  </si>
+  <si>
+    <t>Hendrick Lin</t>
+  </si>
+  <si>
+    <t>Wylie Khoe</t>
+  </si>
+  <si>
+    <t>Michael Shen</t>
+  </si>
+  <si>
+    <t>Ian carroll</t>
+  </si>
+  <si>
+    <t>Maurice Shu Yi Han</t>
+  </si>
+  <si>
     <t>#</t>
   </si>
   <si>
-    <t>Round 1</t>
-  </si>
-  <si>
-    <t>Round 2</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Kang Pi</t>
-  </si>
-  <si>
-    <t>Dennis Guo</t>
-  </si>
-  <si>
-    <t>Xuan Hung Ho</t>
-  </si>
-  <si>
-    <t>Nicholas Leon</t>
-  </si>
-  <si>
-    <t>Xingze Li</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julian Petrocchi </t>
-  </si>
-  <si>
-    <t>Christian Sallabank</t>
-  </si>
-  <si>
-    <t>Levin Kunniardy</t>
-  </si>
-  <si>
-    <t>Phuc Huy Doan</t>
-  </si>
-  <si>
-    <t>Alex Do</t>
-  </si>
-  <si>
-    <t>Anton Lu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subhash Shekar </t>
-  </si>
-  <si>
-    <t>Jack Olivier</t>
-  </si>
-  <si>
-    <t>Leo Grant</t>
-  </si>
-  <si>
-    <t>Andrew Walton</t>
-  </si>
-  <si>
-    <t>Brendan Zou</t>
-  </si>
-  <si>
-    <t>Logan McPhail</t>
-  </si>
-  <si>
-    <t>Jasper Meckel</t>
-  </si>
-  <si>
-    <t>Anirudh Kasturi</t>
-  </si>
-  <si>
-    <t>Cameron Carmeni</t>
-  </si>
-  <si>
-    <t>Joseph Doncev</t>
-  </si>
-  <si>
-    <t>Hong Tak Lei</t>
-  </si>
-  <si>
-    <t>Nadim Kibria</t>
-  </si>
-  <si>
-    <t>Alex Leviny</t>
-  </si>
-  <si>
-    <t>Dylan Baptist</t>
-  </si>
-  <si>
-    <t>Cong Nguyen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Callum GAUNTLETT </t>
-  </si>
-  <si>
-    <t>Hendrick Lin</t>
-  </si>
-  <si>
-    <t>Wylie Khoe</t>
-  </si>
-  <si>
-    <t>Michael Shen</t>
-  </si>
-  <si>
-    <t>Maurice Shu Yi Han</t>
-  </si>
-  <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Jonah Wentzel</t>
-  </si>
-  <si>
-    <t>Brady Surya Sie</t>
-  </si>
-  <si>
-    <t>Ian Carroll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -976,30 +976,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="A2" sqref="A2:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1007,13 +1007,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>-30000</v>
       </c>
       <c r="D2">
-        <v>138000</v>
+        <v>108000</v>
       </c>
       <c r="E2">
         <v>78000</v>
@@ -1024,13 +1024,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>41600</v>
+        <v>11600</v>
       </c>
       <c r="D3">
-        <v>72800</v>
+        <v>42800</v>
       </c>
       <c r="E3">
         <v>54400</v>
@@ -1041,10 +1041,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>110100</v>
+        <v>80100</v>
       </c>
       <c r="D4">
         <v>-30000</v>
@@ -1058,10 +1058,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>110000</v>
+        <v>80000</v>
       </c>
       <c r="D5">
         <v>-30000</v>
@@ -1075,10 +1075,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>96000</v>
+        <v>66000</v>
       </c>
       <c r="D6">
         <v>-30000</v>
@@ -1092,10 +1092,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>90800</v>
+        <v>60800</v>
       </c>
       <c r="D7">
         <v>-30000</v>
@@ -1109,10 +1109,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>80800</v>
+        <v>50800</v>
       </c>
       <c r="D8">
         <v>-30000</v>
@@ -1126,10 +1126,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>71000</v>
+        <v>41000</v>
       </c>
       <c r="D9">
         <v>-30000</v>
@@ -1143,13 +1143,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>-30000</v>
       </c>
       <c r="D10">
-        <v>63200</v>
+        <v>33200</v>
       </c>
       <c r="E10">
         <v>3200</v>
@@ -1160,10 +1160,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>53600</v>
+        <v>23600</v>
       </c>
       <c r="D11">
         <v>-30000</v>
@@ -1177,10 +1177,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>33900</v>
+        <v>3900</v>
       </c>
       <c r="D12">
         <v>-30000</v>
@@ -1194,10 +1194,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>14000</v>
+        <v>-16000</v>
       </c>
       <c r="D13">
         <v>-30000</v>
@@ -1211,7 +1211,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>-30000</v>
@@ -1228,7 +1228,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>-30000</v>
@@ -1245,7 +1245,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>-30000</v>
@@ -1262,7 +1262,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>-30000</v>
@@ -1279,7 +1279,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>-30000</v>
@@ -1398,7 +1398,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>-30000</v>
@@ -1415,7 +1415,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>-30000</v>
@@ -1432,7 +1432,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>-30000</v>
@@ -1449,7 +1449,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>-30000</v>
@@ -1466,7 +1466,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <v>-30000</v>
@@ -1483,7 +1483,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <v>-30000</v>
@@ -1500,7 +1500,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31">
         <v>-30000</v>
@@ -1517,7 +1517,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C32">
         <v>-30000</v>
@@ -1534,7 +1534,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <v>-30000</v>
@@ -1551,7 +1551,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>-30000</v>
@@ -1568,7 +1568,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <v>-30000</v>
